--- a/5-Hardware/1438-5100-00-Puit de courant/1438-5600-00-Puit de courant_BOM.xlsx
+++ b/5-Hardware/1438-5100-00-Puit de courant/1438-5600-00-Puit de courant_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyvasseur\Education Vaud\ETML_FLO-22-24_Teams - Vasseur\DAT\1438\5-Hardware\1438-5100-Puit de courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud.sharepoint.com/sites/ETML_FLO-22-24_Teams/Documents partages/Partages/Vasseur/DAT/1438/5-Hardware/1438-5100-00-Puit de courant/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="192">
   <si>
     <t>Pos.</t>
   </si>
@@ -251,22 +251,22 @@
     <t>CAPC 10nF X7R 50V 10% 1608 (0603 INCH)</t>
   </si>
   <si>
-    <t>Aluminum Electrolytic Capacitor,  220 uF, 16 V, + / - 20%,  6.3 x 7.7 mm D x L</t>
-  </si>
-  <si>
-    <t>HEAT SINK, ALUMINIUM, TO-PACKAGE, 678-39-C</t>
-  </si>
-  <si>
-    <t>FUSE HOLDER 5x20MM THT</t>
-  </si>
-  <si>
-    <t>N channel Mosfet, IRLR7843, high current</t>
-  </si>
-  <si>
-    <t>PNP transistor, TO220, BD912</t>
-  </si>
-  <si>
-    <t>TO-220 ajustable votage regulator, LM317T</t>
+    <t>Aluminum Electrolytic Capacitor, UD Series, Low Impedance, 220 uF, 16 V, + / - 20%, -55 to 105 degC, Chip Type, 6.3 x 7.7 mm D x L, Pb-Free, Reel</t>
+  </si>
+  <si>
+    <t>HEAT SINK, ALUMINIUM, TO-PACKAGE, SMD</t>
+  </si>
+  <si>
+    <t>Fusible FST 2A temporisé</t>
+  </si>
+  <si>
+    <t>N channel Mosfet</t>
+  </si>
+  <si>
+    <t>PNP transistor</t>
+  </si>
+  <si>
+    <t>TO-220 ajustable votage regulator</t>
   </si>
   <si>
     <t>IC OSC SGL TIMER 2.1MHZ 8-SOIC</t>
@@ -278,7 +278,7 @@
     <t>Switched Capacitor Voltage Converter, 8-pin Narrow SOIC</t>
   </si>
   <si>
-    <t>General Purpose Transistor, PNP Silicon, 3-Pin SOT-23, Pb-Free, Tape and Reel, BC857CLT1G</t>
+    <t>General Purpose Transistor, PNP Silicon, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
   </si>
   <si>
     <t>PIC W017-TRI 015-PE-SHEET/1</t>
@@ -389,7 +389,7 @@
     <t>PN</t>
   </si>
   <si>
-    <t>PN-108075</t>
+    <t>1438.5100.00</t>
   </si>
   <si>
     <t>KAM21AR81H104KU</t>
@@ -401,36 +401,12 @@
     <t>PN-514948</t>
   </si>
   <si>
-    <t>UUD1C221MCL1GS</t>
-  </si>
-  <si>
-    <t>678-39-C</t>
-  </si>
-  <si>
-    <t>PN-533361</t>
-  </si>
-  <si>
-    <t>IRLR7843TRLPBF</t>
-  </si>
-  <si>
-    <t>BD912</t>
-  </si>
-  <si>
-    <t>LM317T</t>
-  </si>
-  <si>
     <t>TLC555CDR</t>
   </si>
   <si>
-    <t>BC847C</t>
-  </si>
-  <si>
     <t>LM2662M</t>
   </si>
   <si>
-    <t>BC857CLT1G</t>
-  </si>
-  <si>
     <t>PN-455993</t>
   </si>
   <si>
@@ -458,33 +434,21 @@
     <t>PN-479575</t>
   </si>
   <si>
-    <t>LL4448-GS08</t>
-  </si>
-  <si>
     <t>PN-241492</t>
   </si>
   <si>
     <t>PN-746409</t>
   </si>
   <si>
-    <t>LM4041CIM3-ADJ/NOPB</t>
-  </si>
-  <si>
     <t>PN-531908</t>
   </si>
   <si>
     <t>PN-810533</t>
   </si>
   <si>
-    <t>3296W-1-254LF</t>
-  </si>
-  <si>
     <t>PN-891617</t>
   </si>
   <si>
-    <t>BZV55C5V6</t>
-  </si>
-  <si>
     <t>PN-467784</t>
   </si>
   <si>
@@ -548,6 +512,9 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>E1595562</t>
+  </si>
+  <si>
     <t>581-KAM21AR81H104KU</t>
   </si>
   <si>
@@ -557,30 +524,12 @@
     <t>FAB.0603_C 10nF</t>
   </si>
   <si>
-    <t>647-UUD1C221MCL</t>
-  </si>
-  <si>
-    <t>567-678-39-C</t>
-  </si>
-  <si>
-    <t>942-IRLR7843TRLPBF</t>
-  </si>
-  <si>
-    <t>511-BD912</t>
-  </si>
-  <si>
-    <t>511-LM317T</t>
+    <t>MAG 261.476</t>
   </si>
   <si>
     <t>595-TLC555CDR</t>
   </si>
   <si>
-    <t>637-BC847C</t>
-  </si>
-  <si>
-    <t>863-BC857CLT1G</t>
-  </si>
-  <si>
     <t>302-20-433</t>
   </si>
   <si>
@@ -605,33 +554,21 @@
     <t>FAB.0805_R 220k</t>
   </si>
   <si>
-    <t>78-LL4448</t>
-  </si>
-  <si>
     <t>FAB.0805_R 150k</t>
   </si>
   <si>
     <t>FAB.0805_R 1k0</t>
   </si>
   <si>
-    <t>926-M4041CIM3ADJNOPB</t>
-  </si>
-  <si>
     <t>FAB.0805_R 1M</t>
   </si>
   <si>
     <t>FAB.0805_R 180k</t>
   </si>
   <si>
-    <t>652-3296W-1-254LF</t>
-  </si>
-  <si>
     <t>FAB.0805_R 2k7</t>
   </si>
   <si>
-    <t>494-BZV55C5V6</t>
-  </si>
-  <si>
     <t>FAB.0805_R 5k6</t>
   </si>
   <si>
@@ -672,12 +609,6 @@
   </si>
   <si>
     <t>IsStocked</t>
-  </si>
-  <si>
-    <t>XF1</t>
-  </si>
-  <si>
-    <t>Fusible FST 2A temporisé</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1128,16 +1059,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,31 +1077,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1535,19 +1443,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:K54" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:K54" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A4:K54"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Pos." dataDxfId="34"/>
-    <tableColumn id="2" name="Designator" dataDxfId="33"/>
+    <tableColumn id="1" name="Pos." dataDxfId="32"/>
+    <tableColumn id="2" name="Designator" dataDxfId="31"/>
     <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="PN" dataDxfId="32"/>
-    <tableColumn id="5" name="Quantity" dataDxfId="31"/>
-    <tableColumn id="6" name="Supplier 1" dataDxfId="30"/>
+    <tableColumn id="4" name="PN" dataDxfId="30"/>
+    <tableColumn id="5" name="Quantity" dataDxfId="29"/>
+    <tableColumn id="6" name="Supplier 1" dataDxfId="28"/>
     <tableColumn id="7" name="Supplier Part Number 1"/>
-    <tableColumn id="8" name="Supplier Price 1" dataDxfId="29"/>
-    <tableColumn id="9" name="Order Qty" dataDxfId="28"/>
-    <tableColumn id="10" name="Total" dataDxfId="27"/>
+    <tableColumn id="8" name="Supplier Price 1" dataDxfId="27"/>
+    <tableColumn id="9" name="Order Qty" dataDxfId="26"/>
+    <tableColumn id="10" name="Total" dataDxfId="25"/>
     <tableColumn id="11" name="IsStocked"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1822,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1846,64 +1754,64 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="38" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
+      <c r="H1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1919,16 +1827,16 @@
         <v>117</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>7</v>
@@ -1937,12 +1845,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
-        <f t="shared" ref="A5:A36" si="0">ROW(A5) - ROW($A$4)</f>
+        <f>ROW(A5) - ROW($A$4)</f>
         <v>1</v>
       </c>
       <c r="B5" s="30">
@@ -1958,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H5" s="23">
-        <v>0</v>
+        <v>52.05</v>
       </c>
       <c r="I5" s="20">
         <f>$C$3*E5</f>
@@ -1972,7 +1880,7 @@
       </c>
       <c r="J5" s="23">
         <f>H5*I5</f>
-        <v>0</v>
+        <v>52.05</v>
       </c>
       <c r="K5" s="15" t="b">
         <v>0</v>
@@ -1980,7 +1888,7 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A6) - ROW($A$4)</f>
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -1996,16 +1904,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H6" s="24">
         <v>0.25900000000000001</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6" si="1">$C$3*E6</f>
+        <f t="shared" ref="I6:I53" si="0">$C$3*E6</f>
         <v>6</v>
       </c>
       <c r="J6" s="24">
@@ -2018,7 +1926,7 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A7) - ROW($A$4)</f>
         <v>3</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -2034,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H7" s="23">
         <v>1</v>
@@ -2056,7 +1964,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A8) - ROW($A$4)</f>
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -2075,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H8" s="24">
         <v>1.23E-2</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" ref="I8" si="2">$C$3*E8</f>
+        <f t="shared" ref="I8" si="1">$C$3*E8</f>
         <v>1</v>
       </c>
       <c r="J8" s="24">
@@ -2092,9 +2000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A9) - ROW($A$4)</f>
         <v>5</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -2103,36 +2011,26 @@
       <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.35399999999999998</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="20">
         <f>$C$3*E9</f>
         <v>1</v>
       </c>
       <c r="J9" s="23">
         <f>H9*I9</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A10) - ROW($A$4)</f>
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -2141,45 +2039,35 @@
       <c r="C10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="24">
-        <v>4.57</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="21">
-        <f t="shared" ref="I10" si="3">$C$3*E10</f>
+        <f t="shared" ref="I10:I12" si="2">$C$3*E10</f>
         <v>2</v>
       </c>
       <c r="J10" s="24">
         <f>I10*H10</f>
-        <v>9.14</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A11) - ROW($A$4)</f>
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="39">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7">
         <v>261.476</v>
       </c>
       <c r="E11" s="28">
@@ -2188,8 +2076,8 @@
       <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="5">
-        <v>261.476</v>
+      <c r="G11" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="H11" s="23">
         <v>0.33</v>
@@ -2208,7 +2096,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A12) - ROW($A$4)</f>
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -2217,36 +2105,26 @@
       <c r="C12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1.33</v>
-      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="21">
-        <f t="shared" ref="I12" si="4">$C$3*E12</f>
+        <f t="shared" ref="I12" si="3">$C$3*E12</f>
         <v>2</v>
       </c>
       <c r="J12" s="24">
         <f>I12*H12</f>
-        <v>2.66</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A13) - ROW($A$4)</f>
         <v>9</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -2255,36 +2133,26 @@
       <c r="C13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="23">
-        <v>1.26</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="20">
         <f>$C$3*E13</f>
         <v>1</v>
       </c>
       <c r="J13" s="23">
         <f>H13*I13</f>
-        <v>1.26</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A14) - ROW($A$4)</f>
         <v>10</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -2293,36 +2161,26 @@
       <c r="C14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0.65800000000000003</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="21">
-        <f t="shared" ref="I14" si="5">$C$3*E14</f>
+        <f t="shared" ref="I14:I20" si="4">$C$3*E14</f>
         <v>1</v>
       </c>
       <c r="J14" s="24">
         <f>I14*H14</f>
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="K14" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A15) - ROW($A$4)</f>
         <v>11</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -2332,16 +2190,16 @@
         <v>78</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E15" s="28">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H15" s="23">
         <v>0.55300000000000005</v>
@@ -2360,7 +2218,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A16) - ROW($A$4)</f>
         <v>12</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -2369,36 +2227,26 @@
       <c r="C16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="29">
         <v>4</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="21">
-        <f t="shared" ref="I16" si="6">$C$3*E16</f>
+        <f t="shared" ref="I16" si="5">$C$3*E16</f>
         <v>4</v>
       </c>
       <c r="J16" s="24">
         <f>I16*H16</f>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="K16" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A17) - ROW($A$4)</f>
         <v>13</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -2408,13 +2256,13 @@
         <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G17" s="5">
         <v>9306803</v>
@@ -2436,7 +2284,7 @@
     </row>
     <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A18) - ROW($A$4)</f>
         <v>14</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -2445,36 +2293,26 @@
       <c r="C18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="21">
-        <f t="shared" ref="I18" si="7">$C$3*E18</f>
+        <f t="shared" ref="I18:I20" si="6">$C$3*E18</f>
         <v>1</v>
       </c>
       <c r="J18" s="24">
         <f>I18*H18</f>
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="K18" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A19) - ROW($A$4)</f>
         <v>15</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -2490,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H19" s="23">
         <v>0.246</v>
@@ -2512,7 +2350,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A20) - ROW($A$4)</f>
         <v>16</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -2522,7 +2360,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -2531,13 +2369,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H20" s="24">
         <v>0.02</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" ref="I20" si="8">$C$3*E20</f>
+        <f t="shared" ref="I20" si="7">$C$3*E20</f>
         <v>1</v>
       </c>
       <c r="J20" s="24">
@@ -2550,7 +2388,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A21) - ROW($A$4)</f>
         <v>17</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -2560,13 +2398,13 @@
         <v>84</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G21" s="5">
         <v>9353747</v>
@@ -2588,7 +2426,7 @@
     </row>
     <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A22) - ROW($A$4)</f>
         <v>18</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -2598,13 +2436,13 @@
         <v>85</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E22" s="29">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G22" s="8">
         <v>3399704</v>
@@ -2613,7 +2451,7 @@
         <v>0.15</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" ref="I22" si="9">$C$3*E22</f>
+        <f t="shared" ref="I22:I36" si="8">$C$3*E22</f>
         <v>2</v>
       </c>
       <c r="J22" s="24">
@@ -2626,7 +2464,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A23) - ROW($A$4)</f>
         <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -2636,7 +2474,7 @@
         <v>86</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E23" s="28">
         <v>3</v>
@@ -2645,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H23" s="23">
         <v>0.02</v>
@@ -2664,7 +2502,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A24) - ROW($A$4)</f>
         <v>20</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -2674,7 +2512,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E24" s="29">
         <v>2</v>
@@ -2683,13 +2521,13 @@
         <v>2</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H24" s="24">
         <v>0.02</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" ref="I24" si="10">$C$3*E24</f>
+        <f t="shared" ref="I24" si="9">$C$3*E24</f>
         <v>2</v>
       </c>
       <c r="J24" s="24">
@@ -2702,7 +2540,7 @@
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A25) - ROW($A$4)</f>
         <v>21</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2712,16 +2550,16 @@
         <v>88</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E25" s="28">
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G25" s="5">
-        <v>3399699</v>
+        <v>3399704</v>
       </c>
       <c r="H25" s="23">
         <v>0.15</v>
@@ -2740,7 +2578,7 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A26) - ROW($A$4)</f>
         <v>22</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -2750,7 +2588,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E26" s="29">
         <v>4</v>
@@ -2759,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H26" s="24">
         <v>0.02</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" ref="I26" si="11">$C$3*E26</f>
+        <f t="shared" ref="I26:I28" si="10">$C$3*E26</f>
         <v>4</v>
       </c>
       <c r="J26" s="24">
@@ -2778,7 +2616,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A27) - ROW($A$4)</f>
         <v>23</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -2788,7 +2626,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E27" s="28">
         <v>1</v>
@@ -2797,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H27" s="23">
         <v>0.02</v>
@@ -2816,7 +2654,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A28) - ROW($A$4)</f>
         <v>24</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -2826,7 +2664,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E28" s="29">
         <v>2</v>
@@ -2835,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H28" s="24">
         <v>0.02</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" ref="I28" si="12">$C$3*E28</f>
+        <f t="shared" ref="I28" si="11">$C$3*E28</f>
         <v>2</v>
       </c>
       <c r="J28" s="24">
@@ -2854,7 +2692,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A29) - ROW($A$4)</f>
         <v>25</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2864,7 +2702,7 @@
         <v>92</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
@@ -2873,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H29" s="23">
         <v>0.02</v>
@@ -2892,7 +2730,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A30) - ROW($A$4)</f>
         <v>26</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -2901,36 +2739,26 @@
       <c r="C30" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="29">
         <v>3</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" s="24">
-        <v>0.13900000000000001</v>
-      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="21">
-        <f t="shared" ref="I30" si="13">$C$3*E30</f>
+        <f t="shared" ref="I30:I36" si="12">$C$3*E30</f>
         <v>3</v>
       </c>
       <c r="J30" s="24">
         <f>I30*H30</f>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="K30" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A31) - ROW($A$4)</f>
         <v>27</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -2940,7 +2768,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E31" s="28">
         <v>2</v>
@@ -2949,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H31" s="23">
         <v>0.02</v>
@@ -2968,7 +2796,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A32) - ROW($A$4)</f>
         <v>28</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -2978,7 +2806,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E32" s="29">
         <v>2</v>
@@ -2987,13 +2815,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H32" s="24">
         <v>0.02</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" ref="I32" si="14">$C$3*E32</f>
+        <f t="shared" ref="I32" si="13">$C$3*E32</f>
         <v>2</v>
       </c>
       <c r="J32" s="24">
@@ -3006,7 +2834,7 @@
     </row>
     <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A33) - ROW($A$4)</f>
         <v>29</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3015,36 +2843,26 @@
       <c r="C33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="23">
-        <v>0.623</v>
-      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="20">
         <f>$C$3*E33</f>
         <v>2</v>
       </c>
       <c r="J33" s="23">
         <f>H33*I33</f>
-        <v>1.246</v>
-      </c>
-      <c r="K33" s="15">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A34) - ROW($A$4)</f>
         <v>30</v>
       </c>
       <c r="B34" s="31" t="s">
@@ -3054,7 +2872,7 @@
         <v>97</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -3063,13 +2881,13 @@
         <v>2</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="H34" s="24">
         <v>0.02</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" ref="I34" si="15">$C$3*E34</f>
+        <f t="shared" ref="I34:I36" si="14">$C$3*E34</f>
         <v>1</v>
       </c>
       <c r="J34" s="24">
@@ -3082,7 +2900,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(A35) - ROW($A$4)</f>
         <v>31</v>
       </c>
       <c r="B35" s="30" t="s">
@@ -3092,7 +2910,7 @@
         <v>98</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E35" s="28">
         <v>1</v>
@@ -3101,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H35" s="23">
         <v>0.02</v>
@@ -3120,7 +2938,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
-        <f t="shared" si="0"/>
+        <f>ROW(A36) - ROW($A$4)</f>
         <v>32</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -3129,36 +2947,26 @@
       <c r="C36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="29">
         <v>1</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="24">
-        <v>2.12</v>
-      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="21">
-        <f t="shared" ref="I36" si="16">$C$3*E36</f>
+        <f t="shared" ref="I36" si="15">$C$3*E36</f>
         <v>1</v>
       </c>
       <c r="J36" s="24">
         <f>I36*H36</f>
-        <v>2.12</v>
-      </c>
-      <c r="K36" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
-        <f t="shared" ref="A37:A54" si="17">ROW(A37) - ROW($A$4)</f>
+        <f>ROW(A37) - ROW($A$4)</f>
         <v>33</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -3168,7 +2976,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -3177,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H37" s="23">
         <v>0.02</v>
@@ -3196,7 +3004,7 @@
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A38) - ROW($A$4)</f>
         <v>34</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -3205,34 +3013,26 @@
       <c r="C38" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="D38" s="10"/>
       <c r="E38" s="29">
         <v>1</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="24">
-        <v>2.5299999999999998</v>
-      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="21">
-        <f t="shared" ref="I38" si="18">$C$3*E38</f>
+        <f t="shared" ref="I38:I53" si="16">$C$3*E38</f>
         <v>1</v>
       </c>
       <c r="J38" s="24">
         <f>I38*H38</f>
-        <v>2.5299999999999998</v>
+        <v>0</v>
       </c>
       <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A39) - ROW($A$4)</f>
         <v>35</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -3242,7 +3042,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E39" s="28">
         <v>1</v>
@@ -3251,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H39" s="23">
         <v>0.02</v>
@@ -3270,7 +3070,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A40) - ROW($A$4)</f>
         <v>36</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -3280,7 +3080,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -3289,13 +3089,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H40" s="24">
         <v>0.02</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" ref="I40" si="19">$C$3*E40</f>
+        <f t="shared" ref="I40" si="17">$C$3*E40</f>
         <v>1</v>
       </c>
       <c r="J40" s="24">
@@ -3308,7 +3108,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A41) - ROW($A$4)</f>
         <v>37</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -3318,7 +3118,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E41" s="28">
         <v>1</v>
@@ -3327,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H41" s="23">
         <v>0.02</v>
@@ -3346,7 +3146,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A42) - ROW($A$4)</f>
         <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -3356,7 +3156,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E42" s="29">
         <v>2</v>
@@ -3365,13 +3165,13 @@
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H42" s="24">
         <v>0.02</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" ref="I42" si="20">$C$3*E42</f>
+        <f t="shared" ref="I42:I44" si="18">$C$3*E42</f>
         <v>2</v>
       </c>
       <c r="J42" s="24">
@@ -3384,7 +3184,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A43) - ROW($A$4)</f>
         <v>39</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -3394,7 +3194,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E43" s="28">
         <v>2</v>
@@ -3403,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H43" s="23">
         <v>0</v>
@@ -3422,7 +3222,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A44) - ROW($A$4)</f>
         <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3432,7 +3232,7 @@
         <v>107</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -3441,13 +3241,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H44" s="24">
         <v>0.02</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" ref="I44" si="21">$C$3*E44</f>
+        <f t="shared" ref="I44" si="19">$C$3*E44</f>
         <v>1</v>
       </c>
       <c r="J44" s="24">
@@ -3460,7 +3260,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A45) - ROW($A$4)</f>
         <v>41</v>
       </c>
       <c r="B45" s="30" t="s">
@@ -3470,7 +3270,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
@@ -3479,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H45" s="23">
         <v>0.02</v>
@@ -3498,7 +3298,7 @@
     </row>
     <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A46) - ROW($A$4)</f>
         <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -3508,7 +3308,7 @@
         <v>109</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -3517,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H46" s="24">
         <v>12.83</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" ref="I46" si="22">$C$3*E46</f>
+        <f t="shared" ref="I46:I52" si="20">$C$3*E46</f>
         <v>1</v>
       </c>
       <c r="J46" s="24">
@@ -3536,7 +3336,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A47) - ROW($A$4)</f>
         <v>43</v>
       </c>
       <c r="B47" s="30" t="s">
@@ -3546,7 +3346,7 @@
         <v>110</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E47" s="28">
         <v>1</v>
@@ -3555,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H47" s="23">
         <v>1.7</v>
@@ -3574,7 +3374,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A48) - ROW($A$4)</f>
         <v>44</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3584,7 +3384,7 @@
         <v>111</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E48" s="29">
         <v>1</v>
@@ -3593,13 +3393,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H48" s="24">
         <v>1.51</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" ref="I48" si="23">$C$3*E48</f>
+        <f t="shared" ref="I48" si="21">$C$3*E48</f>
         <v>1</v>
       </c>
       <c r="J48" s="24">
@@ -3612,7 +3412,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A49) - ROW($A$4)</f>
         <v>45</v>
       </c>
       <c r="B49" s="30" t="s">
@@ -3622,7 +3422,7 @@
         <v>112</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E49" s="28">
         <v>3</v>
@@ -3631,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H49" s="23">
         <v>0.06</v>
@@ -3650,7 +3450,7 @@
     </row>
     <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A50) - ROW($A$4)</f>
         <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -3660,7 +3460,7 @@
         <v>113</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E50" s="29">
         <v>8</v>
@@ -3669,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H50" s="24">
         <v>0.29310000000000003</v>
       </c>
       <c r="I50" s="21">
-        <f t="shared" ref="I50" si="24">$C$3*E50</f>
+        <f t="shared" ref="I50:I52" si="22">$C$3*E50</f>
         <v>8</v>
       </c>
       <c r="J50" s="24">
@@ -3688,7 +3488,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A51) - ROW($A$4)</f>
         <v>47</v>
       </c>
       <c r="B51" s="30" t="s">
@@ -3698,7 +3498,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E51" s="28">
         <v>2</v>
@@ -3707,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H51" s="23">
         <v>0.04</v>
@@ -3726,7 +3526,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
-        <f t="shared" si="17"/>
+        <f>ROW(A52) - ROW($A$4)</f>
         <v>48</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -3743,7 +3543,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="24"/>
       <c r="I52" s="21">
-        <f t="shared" ref="I52" si="25">$C$3*E52</f>
+        <f t="shared" ref="I52" si="23">$C$3*E52</f>
         <v>2</v>
       </c>
       <c r="J52" s="24">
@@ -3754,7 +3554,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
-        <f t="shared" si="17"/>
+        <f>ROW(A53) - ROW($A$4)</f>
         <v>49</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -3764,7 +3564,7 @@
         <v>116</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E53" s="28">
         <v>1</v>
@@ -3773,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H53" s="23">
         <v>0.26</v>
@@ -3791,42 +3591,17 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
-        <f t="shared" si="17"/>
-        <v>50</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="28">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54" s="5">
-        <v>3517015</v>
-      </c>
-      <c r="H54" s="23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I54" s="20">
-        <f>$C$3*E54</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="23">
-        <f>H54*I54</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K54" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="A54" s="26"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H55" s="11" t="s">
@@ -3838,7 +3613,7 @@
       </c>
       <c r="J55" s="25">
         <f>SUM(J5:J53)</f>
-        <v>60.125100000000018</v>
+        <v>91.360100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3846,11 +3621,6 @@
     <mergeCell ref="H1:J3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3861,7 +3631,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{64211BAB-4930-4668-885C-0EA0CE6E5BE5}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{64211BAB-4930-4668-885C-0EA0CE6E5BE5}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K5)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3875,10 +3645,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:K6</xm:sqref>
+          <xm:sqref>K5:K6 K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{6FBE027B-FB31-47A7-ACD4-5ED830F01C76}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{A13FC9AF-2449-47BF-8EFA-C2528BFF7A09}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K7)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3895,7 +3665,7 @@
           <xm:sqref>K7:K8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{D6737FEC-398A-4950-AAC9-87E32874816F}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{D8DB5962-7539-4780-973B-C1E4699EF297}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K9)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3912,7 +3682,7 @@
           <xm:sqref>K9:K10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{F9B55B37-24E8-46AF-93D6-51E983D4D7FB}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{1372FDC5-3E3B-4C76-B613-B201897BFAE9}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K11)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3929,7 +3699,7 @@
           <xm:sqref>K11:K12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99328FB-6DD2-4FAE-A5AC-FF5361A896DC}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{2EFDBCF4-DCD3-4B4E-92C0-0DD5F455B6A1}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K13)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3946,7 +3716,7 @@
           <xm:sqref>K13:K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{CF425ADF-23AF-4D01-A856-26B837E66F20}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{8FA3C7BC-D029-4203-9A73-4C78225FEF4B}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K15)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3963,7 +3733,7 @@
           <xm:sqref>K15:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{FDF292FD-2556-4C43-988B-4E606602AE1A}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{99FC5AD2-C830-4269-AECF-B291BD7412EA}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K17)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3980,7 +3750,7 @@
           <xm:sqref>K17:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{B8FDC38D-7798-4160-B79D-C22876C4C4C8}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{E5B1FCD9-0787-459B-B61E-080B8CCB5E47}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K19)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3997,7 +3767,7 @@
           <xm:sqref>K19:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{7AFFE315-B12C-45DD-9BDD-7C8FF009D0DE}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{5EB319A9-B83D-41F0-A253-915534F67D81}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K21)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4014,7 +3784,7 @@
           <xm:sqref>K21:K22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{E8FCE739-FFF1-40CE-BCAB-2D651A3BADB1}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{CBBFDBF9-E139-4499-9418-75401BB85915}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K23)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4031,7 +3801,7 @@
           <xm:sqref>K23:K24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{C24429B6-1BA3-4EAE-B100-0017F99253EE}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{AE6B3D80-0782-4612-A53A-66F59384F3F2}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K25)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4048,7 +3818,7 @@
           <xm:sqref>K25:K26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{48D25579-98DB-4EB8-B317-44852011B7BF}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{CF982995-4F8D-41C5-85A7-FEA0A253CE92}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K27)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4065,7 +3835,7 @@
           <xm:sqref>K27:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{4CF3A302-41E6-4941-B446-820644F9FB81}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{880833C0-C91A-4DD3-9088-9FB3D951485C}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K29)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4082,7 +3852,7 @@
           <xm:sqref>K29:K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{0EA78D8C-0397-415F-A73F-A9A5C6DF7E55}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{DDF643CE-E688-4049-B4FA-22B98BF66EED}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K31)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4099,7 +3869,7 @@
           <xm:sqref>K31:K32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{7F32302F-4857-434D-AEA3-81391C5C59B1}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{6E43663C-7130-4229-A5F2-1805789FE4F2}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K33)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4116,7 +3886,7 @@
           <xm:sqref>K33:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{E915A3BD-8CFA-4BBB-BBCE-F009A57E2765}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{EB8C908A-820C-487C-A067-110ECBF092F0}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K35)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4133,7 +3903,7 @@
           <xm:sqref>K35:K36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{D7309C52-80A0-42D9-A575-494A967FB4F3}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E619E23F-A22C-4D2D-BBFE-3A3CF826A2CB}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K37)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4150,7 +3920,7 @@
           <xm:sqref>K37:K38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{F7C80090-A7B1-4281-8B29-E9ABEC36FF97}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2D513D1D-1EED-4F28-992C-95EC724B5B28}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K39)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4167,7 +3937,7 @@
           <xm:sqref>K39:K40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{59F87D3C-147F-42C5-93FB-B90260368DCA}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{FDDC2979-F97C-4C14-9718-8CF8A23D336A}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K41)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4184,7 +3954,7 @@
           <xm:sqref>K41:K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{BBA637B9-0EF5-4AA2-A01B-2139D5C19B85}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{3D8BEE3A-5B2B-4957-A361-68DCC8FE853A}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K43)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4201,7 +3971,7 @@
           <xm:sqref>K43:K44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{FFE59934-756D-49E5-8C7D-28BA6CA91EB4}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{8E708206-722C-492B-9EFC-AB8FE7EB8CDF}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K45)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4218,7 +3988,7 @@
           <xm:sqref>K45:K46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{ED4D6400-4655-4260-9F29-A7F61CAE3E29}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{6F78C352-FB9F-41D5-8089-30DA49CCBF36}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K47)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4235,7 +4005,7 @@
           <xm:sqref>K47:K48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{745AC6A4-0C3F-478C-AAB0-E6FC83B60CE9}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{20CEAF12-6968-447F-A426-3CF53D2F9917}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K49)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4252,7 +4022,7 @@
           <xm:sqref>K49:K50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{821DEDD2-C95D-4A36-8049-3A6332ACFDDF}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DCA973DE-37D0-4C62-B790-48B60BE42599}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K51)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4269,7 +4039,7 @@
           <xm:sqref>K51:K52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C3DEA72A-D2C1-45A6-97B4-7001AA369A16}">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{9A3A2B54-6427-4CF0-9591-C8122F1667E3}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K53)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4284,23 +4054,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>K53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{1B409C2E-0B48-494C-ABA1-9D5126DC6A07}">
-            <xm:f>NOT(ISERROR(SEARCH("VRAI",K54)))</xm:f>
-            <xm:f>"VRAI"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4566,16 +4319,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A056176-9FE1-4C5F-A929-245972C77676}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="dfa80de1-e9bb-4cf2-893d-d06220b3971a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="98d92101-24da-4498-9971-a24673344bd8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98d92101-24da-4498-9971-a24673344bd8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4589,7 +4342,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C2CADE7-C340-4D0B-BD99-05BB04C9DCF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FE74D-A131-4254-83B9-7C90564D4675}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/5-Hardware/1438-5100-00-Puit de courant/1438-5600-00-Puit de courant_BOM.xlsx
+++ b/5-Hardware/1438-5100-00-Puit de courant/1438-5600-00-Puit de courant_BOM.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM Simple'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$J$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$J$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
   <si>
     <t>Pos.</t>
   </si>
@@ -167,7 +167,10 @@
     <t>R20, R25, R42</t>
   </si>
   <si>
-    <t>R24, R26</t>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R26</t>
   </si>
   <si>
     <t>R27, R30</t>
@@ -317,6 +320,9 @@
     <t>DIODE GEN PURP 75V 150MA SOD80</t>
   </si>
   <si>
+    <t>RES 100kohm  ±1% 0.125W 2012 (0805 INCH)</t>
+  </si>
+  <si>
     <t>RES 150kohm  ±1% 0.125W 2012 (0805 INCH)</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
     <t>PN-479575</t>
   </si>
   <si>
+    <t>PN-903408</t>
+  </si>
+  <si>
     <t>PN-241492</t>
   </si>
   <si>
@@ -552,6 +561,9 @@
   </si>
   <si>
     <t>FAB.0805_R 220k</t>
+  </si>
+  <si>
+    <t>FAB.0805_R 100k</t>
   </si>
   <si>
     <t>FAB.0805_R 150k</t>
@@ -1443,8 +1455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:K54" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A4:K54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:K55" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A4:K55"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Pos." dataDxfId="32"/>
     <tableColumn id="2" name="Designator" dataDxfId="31"/>
@@ -1728,7 +1740,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C8"/>
@@ -1821,22 +1833,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>7</v>
@@ -1845,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1857,19 +1869,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H5" s="23">
         <v>52.05</v>
@@ -1895,25 +1907,25 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E6" s="29">
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H6" s="24">
         <v>0.25900000000000001</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6:I53" si="0">$C$3*E6</f>
+        <f t="shared" ref="I6:I54" si="0">$C$3*E6</f>
         <v>6</v>
       </c>
       <c r="J6" s="24">
@@ -1933,19 +1945,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7" s="28">
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H7" s="23">
         <v>1</v>
@@ -1971,10 +1983,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -1983,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H8" s="24">
         <v>1.23E-2</v>
@@ -2009,7 +2021,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="28">
@@ -2037,7 +2049,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="29">
@@ -2065,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
         <v>261.476</v>
@@ -2077,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H11" s="23">
         <v>0.33</v>
@@ -2103,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="29">
@@ -2131,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="28">
@@ -2159,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="29">
@@ -2187,19 +2199,19 @@
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" s="28">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H15" s="23">
         <v>0.55300000000000005</v>
@@ -2225,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="29">
@@ -2253,16 +2265,16 @@
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G17" s="5">
         <v>9306803</v>
@@ -2291,7 +2303,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="29">
@@ -2319,19 +2331,19 @@
         <v>32</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H19" s="23">
         <v>0.246</v>
@@ -2357,10 +2369,10 @@
         <v>33</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -2369,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H20" s="24">
         <v>0.02</v>
@@ -2395,16 +2407,16 @@
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G21" s="5">
         <v>9353747</v>
@@ -2433,16 +2445,16 @@
         <v>35</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="29">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G22" s="8">
         <v>3399704</v>
@@ -2471,10 +2483,10 @@
         <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23" s="28">
         <v>3</v>
@@ -2483,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H23" s="23">
         <v>0.02</v>
@@ -2509,10 +2521,10 @@
         <v>37</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24" s="29">
         <v>2</v>
@@ -2521,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H24" s="24">
         <v>0.02</v>
@@ -2547,16 +2559,16 @@
         <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E25" s="28">
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G25" s="5">
         <v>3399704</v>
@@ -2585,10 +2597,10 @@
         <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E26" s="29">
         <v>4</v>
@@ -2597,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="24">
         <v>0.02</v>
@@ -2623,10 +2635,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E27" s="28">
         <v>1</v>
@@ -2635,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H27" s="23">
         <v>0.02</v>
@@ -2661,10 +2673,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E28" s="29">
         <v>2</v>
@@ -2673,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H28" s="24">
         <v>0.02</v>
@@ -2699,10 +2711,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
@@ -2711,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H29" s="23">
         <v>0.02</v>
@@ -2737,7 +2749,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="29">
@@ -2765,30 +2777,30 @@
         <v>44</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E31" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H31" s="23">
         <v>0.02</v>
       </c>
       <c r="I31" s="20">
         <f>$C$3*E31</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="23">
         <f>H31*I31</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K31" s="15">
         <v>1</v>
@@ -2803,36 +2815,36 @@
         <v>45</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E32" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H32" s="24">
         <v>0.02</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" ref="I32" si="13">$C$3*E32</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="24">
         <f>I32*H32</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K32" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <f>ROW(A33) - ROW($A$4)</f>
         <v>29</v>
@@ -2841,26 +2853,36 @@
         <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="23"/>
+      <c r="F33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0.02</v>
+      </c>
       <c r="I33" s="20">
         <f>$C$3*E33</f>
         <v>2</v>
       </c>
       <c r="J33" s="23">
         <f>H33*I33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <f>ROW(A34) - ROW($A$4)</f>
         <v>30</v>
@@ -2869,34 +2891,24 @@
         <v>47</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="29">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="24">
-        <v>0.02</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="21">
         <f t="shared" ref="I34:I36" si="14">$C$3*E34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="24">
         <f>I34*H34</f>
-        <v>0.02</v>
-      </c>
-      <c r="K34" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
@@ -2907,10 +2919,10 @@
         <v>48</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" s="28">
         <v>1</v>
@@ -2919,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H35" s="23">
         <v>0.02</v>
@@ -2945,24 +2957,34 @@
         <v>49</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="E36" s="29">
         <v>1</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="24"/>
+      <c r="F36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0.02</v>
+      </c>
       <c r="I36" s="21">
         <f t="shared" ref="I36" si="15">$C$3*E36</f>
         <v>1</v>
       </c>
       <c r="J36" s="24">
         <f>I36*H36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
@@ -2973,36 +2995,26 @@
         <v>50</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="20">
         <f>$C$3*E37</f>
         <v>1</v>
       </c>
       <c r="J37" s="23">
         <f>H37*I37</f>
-        <v>0.02</v>
-      </c>
-      <c r="K37" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <f>ROW(A38) - ROW($A$4)</f>
         <v>34</v>
@@ -3011,26 +3023,36 @@
         <v>51</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="E38" s="29">
         <v>1</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="24"/>
+      <c r="F38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0.02</v>
+      </c>
       <c r="I38" s="21">
-        <f t="shared" ref="I38:I53" si="16">$C$3*E38</f>
+        <f t="shared" ref="I38:I54" si="16">$C$3*E38</f>
         <v>1</v>
       </c>
       <c r="J38" s="24">
         <f>I38*H38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <f>ROW(A39) - ROW($A$4)</f>
         <v>35</v>
@@ -3039,34 +3061,24 @@
         <v>52</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>138</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="28">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="20">
         <f>$C$3*E39</f>
         <v>1</v>
       </c>
       <c r="J39" s="23">
         <f>H39*I39</f>
-        <v>0.02</v>
-      </c>
-      <c r="K39" s="15">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -3077,10 +3089,10 @@
         <v>53</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -3089,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H40" s="24">
         <v>0.02</v>
@@ -3115,10 +3127,10 @@
         <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E41" s="28">
         <v>1</v>
@@ -3127,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H41" s="23">
         <v>0.02</v>
@@ -3153,30 +3165,30 @@
         <v>55</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E42" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H42" s="24">
         <v>0.02</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" ref="I42:I44" si="18">$C$3*E42</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="24">
         <f>I42*H42</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K42" s="16">
         <v>1</v>
@@ -3191,10 +3203,10 @@
         <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E43" s="28">
         <v>2</v>
@@ -3203,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="H43" s="23">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I43" s="20">
         <f>$C$3*E43</f>
@@ -3214,7 +3226,7 @@
       </c>
       <c r="J43" s="23">
         <f>H43*I43</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K43" s="15">
         <v>1</v>
@@ -3229,30 +3241,30 @@
         <v>57</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E44" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H44" s="24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" ref="I44" si="19">$C$3*E44</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="24">
         <f>I44*H44</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K44" s="16">
         <v>1</v>
@@ -3267,10 +3279,10 @@
         <v>58</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
@@ -3279,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H45" s="23">
         <v>0.02</v>
@@ -3296,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <f>ROW(A46) - ROW($A$4)</f>
         <v>42</v>
@@ -3305,10 +3317,10 @@
         <v>59</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -3317,10 +3329,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H46" s="24">
-        <v>12.83</v>
+        <v>0.02</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" ref="I46:I52" si="20">$C$3*E46</f>
@@ -3328,13 +3340,13 @@
       </c>
       <c r="J46" s="24">
         <f>I46*H46</f>
-        <v>12.83</v>
+        <v>0.02</v>
       </c>
       <c r="K46" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
         <f>ROW(A47) - ROW($A$4)</f>
         <v>43</v>
@@ -3343,10 +3355,10 @@
         <v>60</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E47" s="28">
         <v>1</v>
@@ -3355,10 +3367,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H47" s="23">
-        <v>1.7</v>
+        <v>12.83</v>
       </c>
       <c r="I47" s="20">
         <f>$C$3*E47</f>
@@ -3366,9 +3378,9 @@
       </c>
       <c r="J47" s="23">
         <f>H47*I47</f>
-        <v>1.7</v>
-      </c>
-      <c r="K47" s="15" t="b">
+        <v>12.83</v>
+      </c>
+      <c r="K47" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3381,10 +3393,10 @@
         <v>61</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E48" s="29">
         <v>1</v>
@@ -3393,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H48" s="24">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" ref="I48" si="21">$C$3*E48</f>
@@ -3404,7 +3416,7 @@
       </c>
       <c r="J48" s="24">
         <f>I48*H48</f>
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="K48" s="16" t="b">
         <v>1</v>
@@ -3419,36 +3431,36 @@
         <v>62</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E49" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H49" s="23">
-        <v>0.06</v>
+        <v>1.51</v>
       </c>
       <c r="I49" s="20">
         <f>$C$3*E49</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" s="23">
         <f>H49*I49</f>
-        <v>0.18</v>
+        <v>1.51</v>
       </c>
       <c r="K49" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <f>ROW(A50) - ROW($A$4)</f>
         <v>46</v>
@@ -3457,36 +3469,36 @@
         <v>63</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E50" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H50" s="24">
-        <v>0.29310000000000003</v>
+        <v>0.06</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" ref="I50:I52" si="22">$C$3*E50</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J50" s="24">
         <f>I50*H50</f>
-        <v>2.3448000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="K50" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <f>ROW(A51) - ROW($A$4)</f>
         <v>47</v>
@@ -3495,30 +3507,30 @@
         <v>64</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E51" s="28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H51" s="23">
-        <v>0.04</v>
+        <v>0.29310000000000003</v>
       </c>
       <c r="I51" s="20">
         <f>$C$3*E51</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J51" s="23">
         <f>H51*I51</f>
-        <v>0.08</v>
+        <v>2.3448000000000002</v>
       </c>
       <c r="K51" s="15" t="b">
         <v>1</v>
@@ -3533,24 +3545,34 @@
         <v>65</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="E52" s="29">
         <v>2</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="24"/>
+      <c r="F52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="24">
+        <v>0.04</v>
+      </c>
       <c r="I52" s="21">
         <f t="shared" ref="I52" si="23">$C$3*E52</f>
         <v>2</v>
       </c>
       <c r="J52" s="24">
         <f>I52*H52</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="16"/>
+        <v>0.08</v>
+      </c>
+      <c r="K52" s="16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
@@ -3561,59 +3583,87 @@
         <v>66</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="28">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H53" s="23">
-        <v>0.26</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="20">
         <f>$C$3*E53</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="23">
         <f>H53*I53</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <f>ROW(A54) - ROW($A$4)</f>
+        <v>50</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="29">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="24">
         <v>0.26</v>
       </c>
-      <c r="K53" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="15"/>
+      <c r="I54" s="21">
+        <f t="shared" ref="I54" si="24">$C$3*E54</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <f>I54*H54</f>
+        <v>0.26</v>
+      </c>
+      <c r="K54" s="16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="11" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="22">
-        <f>SUM(I5:I53)</f>
+      <c r="I56" s="22">
+        <f>SUM(I5:I54)</f>
         <v>96</v>
       </c>
-      <c r="J55" s="25">
-        <f>SUM(J5:J53)</f>
-        <v>91.360100000000003</v>
+      <c r="J56" s="25">
+        <f>SUM(J5:J54)</f>
+        <v>91.360099999999989</v>
       </c>
     </row>
   </sheetData>
@@ -3645,10 +3695,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:K6 K54</xm:sqref>
+          <xm:sqref>K5:K6 K55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{A13FC9AF-2449-47BF-8EFA-C2528BFF7A09}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{8ED4FCFF-C2E1-4F85-B9A2-16465851A8BB}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K7)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3665,7 +3715,7 @@
           <xm:sqref>K7:K8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{D8DB5962-7539-4780-973B-C1E4699EF297}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{83E3FF14-E665-4786-B3F7-2BC4B2D59561}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K9)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3682,7 +3732,7 @@
           <xm:sqref>K9:K10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{1372FDC5-3E3B-4C76-B613-B201897BFAE9}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{8733D224-C0CA-4CBD-AE09-00EC6D706C2C}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K11)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3699,7 +3749,7 @@
           <xm:sqref>K11:K12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{2EFDBCF4-DCD3-4B4E-92C0-0DD5F455B6A1}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{A3B2C2DC-F19C-4034-BDA8-87AAFBD0DCD9}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K13)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3716,7 +3766,7 @@
           <xm:sqref>K13:K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{8FA3C7BC-D029-4203-9A73-4C78225FEF4B}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{4964CAA6-B9F9-43EC-9392-5B0E19419C42}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K15)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3733,7 +3783,7 @@
           <xm:sqref>K15:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{99FC5AD2-C830-4269-AECF-B291BD7412EA}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{2CF4A4D8-27E2-421D-BC3E-20D8D0CB02EB}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K17)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3750,7 +3800,7 @@
           <xm:sqref>K17:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{E5B1FCD9-0787-459B-B61E-080B8CCB5E47}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{38186D39-B162-4963-8CF7-A90360BA5769}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K19)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3767,7 +3817,7 @@
           <xm:sqref>K19:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{5EB319A9-B83D-41F0-A253-915534F67D81}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{6144311B-84F2-44B7-9FEE-912300E591BF}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K21)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3784,7 +3834,7 @@
           <xm:sqref>K21:K22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{CBBFDBF9-E139-4499-9418-75401BB85915}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{44DF6911-A0E3-4BF0-A20E-AF5BBBF010A4}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K23)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3801,7 +3851,7 @@
           <xm:sqref>K23:K24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{AE6B3D80-0782-4612-A53A-66F59384F3F2}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{89FD2685-0212-4074-8578-976294A232F1}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K25)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3818,7 +3868,7 @@
           <xm:sqref>K25:K26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{CF982995-4F8D-41C5-85A7-FEA0A253CE92}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{D8DBD0AC-E228-4BDA-A1EB-D5339E8C1F92}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K27)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3835,7 +3885,7 @@
           <xm:sqref>K27:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{880833C0-C91A-4DD3-9088-9FB3D951485C}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{EEA7FD88-EC90-4BFC-BC77-388763D4A3EB}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K29)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3852,7 +3902,7 @@
           <xm:sqref>K29:K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{DDF643CE-E688-4049-B4FA-22B98BF66EED}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{3D19B462-51E8-45DE-82F5-C73967054109}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K31)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3869,7 +3919,7 @@
           <xm:sqref>K31:K32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{6E43663C-7130-4229-A5F2-1805789FE4F2}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{0058865A-81DC-4A7A-A5B6-AC10DBDB5142}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K33)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3886,7 +3936,7 @@
           <xm:sqref>K33:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{EB8C908A-820C-487C-A067-110ECBF092F0}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{F092E193-D5E4-4ED1-AEFE-54572DD4808B}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K35)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3903,7 +3953,7 @@
           <xm:sqref>K35:K36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E619E23F-A22C-4D2D-BBFE-3A3CF826A2CB}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{48BE2A28-BECF-4B78-84B8-A3FCDFB9FC64}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K37)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3920,7 +3970,7 @@
           <xm:sqref>K37:K38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2D513D1D-1EED-4F28-992C-95EC724B5B28}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5189F89F-5139-4A64-97A4-8588FA6DCD57}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K39)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3937,7 +3987,7 @@
           <xm:sqref>K39:K40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{FDDC2979-F97C-4C14-9718-8CF8A23D336A}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{780CB633-63B3-40F8-A929-72ED05B8FD22}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K41)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3954,7 +4004,7 @@
           <xm:sqref>K41:K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{3D8BEE3A-5B2B-4957-A361-68DCC8FE853A}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{7386C131-D5A6-4311-96E8-D96287209CF6}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K43)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3971,7 +4021,7 @@
           <xm:sqref>K43:K44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{8E708206-722C-492B-9EFC-AB8FE7EB8CDF}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E0E9AC6E-26F9-448C-9917-6944A27334B9}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K45)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -3988,7 +4038,7 @@
           <xm:sqref>K45:K46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{6F78C352-FB9F-41D5-8089-30DA49CCBF36}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4D7EC1CD-0D93-4BB3-88D3-0BF4F331E85A}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K47)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4005,7 +4055,7 @@
           <xm:sqref>K47:K48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{20CEAF12-6968-447F-A426-3CF53D2F9917}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{70E4CC1A-E209-4421-A6C1-0743E0A1DEFC}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K49)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4022,7 +4072,7 @@
           <xm:sqref>K49:K50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DCA973DE-37D0-4C62-B790-48B60BE42599}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{564B8B82-5477-4009-AE4F-B9784F956DD1}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K51)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4039,7 +4089,7 @@
           <xm:sqref>K51:K52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{9A3A2B54-6427-4CF0-9591-C8122F1667E3}">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{57453F39-84E1-4C79-B31C-79693C1BF6C8}">
             <xm:f>NOT(ISERROR(SEARCH("VRAI",K53)))</xm:f>
             <xm:f>"VRAI"</xm:f>
             <x14:dxf>
@@ -4053,7 +4103,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K53</xm:sqref>
+          <xm:sqref>K53:K54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4319,13 +4369,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A056176-9FE1-4C5F-A929-245972C77676}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="dfa80de1-e9bb-4cf2-893d-d06220b3971a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="98d92101-24da-4498-9971-a24673344bd8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -4342,7 +4392,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FE74D-A131-4254-83B9-7C90564D4675}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3C652-9F99-484F-93AD-D16160E44AD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
